--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-REPARTO/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-REPARTO/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -385,6 +385,14 @@
   <si>
     <t xml:space="preserve">Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servizio di invio FSE attualmente non diponibile, si prega di riprovare in seguito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nel software viene visualizzato l'errore “Servizio di invio FSE attualemente non diponibile si prega di riporvare più tardi" piu la descrizione esatta dell'errore ricevuto,
+l'utente (medico) può ancora generare nuovi documenti CDA2, tuttavia, non sarà in grado di trasmetterli fino al ripristino del sistema.
+I documenti generati vengono memorizzati in una lista di lavoro dedicata, in attesa di un nuovo invio.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -876,37 +884,37 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -914,17 +922,17 @@
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
@@ -934,7 +942,7 @@
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -942,23 +950,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -1031,16 +1039,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -3245,7 +3253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="11" customHeight="1">
+    <row r="11" ht="20.25" customHeight="1">
       <c r="A11" s="33">
         <v>37</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" ht="11" hidden="1" customHeight="1">
+    <row r="12" ht="32.25" customHeight="1">
       <c r="A12" s="33">
         <v>45</v>
       </c>
@@ -3331,13 +3339,27 @@
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="M12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="T12" s="38"/>
       <c r="U12" s="39" t="s">
         <v>59</v>
@@ -3358,10 +3380,10 @@
         <v>48</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
@@ -3371,7 +3393,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -3399,10 +3421,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -3412,7 +3434,7 @@
         <v>51</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -3440,10 +3462,10 @@
         <v>48</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
@@ -3453,7 +3475,7 @@
         <v>51</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -3481,10 +3503,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
@@ -3494,7 +3516,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -3522,22 +3544,22 @@
         <v>48</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="36">
         <v>45882</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>59</v>
@@ -3551,7 +3573,7 @@
         <v>59</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="38" t="s">
         <v>51</v>
@@ -3563,7 +3585,7 @@
         <v>59</v>
       </c>
       <c r="S17" s="38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -3583,22 +3605,22 @@
         <v>48</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="36">
         <v>45882</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>59</v>
@@ -3612,7 +3634,7 @@
         <v>59</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P18" s="38" t="s">
         <v>51</v>
@@ -3624,7 +3646,7 @@
         <v>59</v>
       </c>
       <c r="S18" s="38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39"/>
@@ -3644,10 +3666,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -3657,7 +3679,7 @@
         <v>51</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
@@ -3685,10 +3707,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
@@ -3698,7 +3720,7 @@
         <v>51</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -3726,22 +3748,22 @@
         <v>48</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21" s="36">
         <v>45882</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>59</v>
@@ -3755,7 +3777,7 @@
         <v>59</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>59</v>
@@ -3767,7 +3789,7 @@
         <v>59</v>
       </c>
       <c r="S21" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -3787,10 +3809,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
@@ -3800,7 +3822,7 @@
         <v>51</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
@@ -3828,22 +3850,22 @@
         <v>48</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" s="36">
         <v>45882</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I23" s="37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>59</v>
@@ -3861,7 +3883,7 @@
       <c r="U23" s="39"/>
       <c r="V23" s="40"/>
       <c r="W23" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="1">
@@ -3875,10 +3897,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
@@ -3888,7 +3910,7 @@
         <v>51</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -3902,7 +3924,7 @@
       <c r="U24" s="39"/>
       <c r="V24" s="40"/>
       <c r="W24" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -3916,10 +3938,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -3929,7 +3951,7 @@
         <v>51</v>
       </c>
       <c r="K25" s="38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="38"/>
@@ -7643,11 +7665,7 @@
     <row r="568" ht="14.25" customHeight="1"/>
     <row r="569" ht="14.25" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A9:W25">
-    <filterColumn colId="20">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W25"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -7676,17 +7694,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -7696,22 +7714,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7743,36 +7761,36 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -7780,125 +7798,125 @@
         <v>48</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" ht="14.5">
       <c r="A7" s="45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" ht="14.5">
       <c r="A8" s="45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" ht="14.5">
       <c r="A9" s="45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="43.5">
       <c r="A10" s="45" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -8887,7 +8905,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>59</v>
@@ -8895,7 +8913,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-REPARTO/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-REPARTO/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -526,13 +526,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-13T12:53:54:00Z</t>
-  </si>
-  <si>
-    <t>178259508596b8d11c34424edb4fd4d0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.de68ae99bca4f5986050ba412f2ed7adc72a586e2c71b7738012ad961fcd5b53.98be2a1dd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-26T09:01:47:00Z</t>
+  </si>
+  <si>
+    <t>c99f3ea053cc46be5d8e523a5dd3a2c8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.de68ae99bca4f5986050ba412f2ed7adc72a586e2c71b7738012ad961fcd5b53.f6c02621e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -3856,7 +3856,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="36">
-        <v>45882</v>
+        <v>45895</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>106</v>

--- a/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-REPARTO/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111DMEDICALSRLXX/D-MEDICAL_SRL/MEDINET-REPARTO/3.24.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -526,13 +526,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2025-08-26T09:01:47:00Z</t>
-  </si>
-  <si>
-    <t>c99f3ea053cc46be5d8e523a5dd3a2c8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.de68ae99bca4f5986050ba412f2ed7adc72a586e2c71b7738012ad961fcd5b53.f6c02621e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-08-27T08:17:58:00Z</t>
+  </si>
+  <si>
+    <t>dab88ec5cd1faafec51ca0e0d988e2be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.de68ae99bca4f5986050ba412f2ed7adc72a586e2c71b7738012ad961fcd5b53.c80025ecdc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>OK</t>
@@ -3856,7 +3856,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="36">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>106</v>
